--- a/PCB/ESP32_2.13INCH_E-INK_Rev3.4.xlsx
+++ b/PCB/ESP32_2.13INCH_E-INK_Rev3.4.xlsx
@@ -3,11 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Dropbox\Arduino_PCB\ESP32_E-ink\ESP32_2.13INCH_E-INK\Project Outputs for ESP32_2.13INCH_E-INK_Rev3.4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17985" windowHeight="8408"/>
   </bookViews>
   <sheets>
-    <sheet name="ESP32_2.13INCH_E-INK_Rev1" sheetId="1" r:id="rId1"/>
+    <sheet name="ESP32_2.13INCH_E-INK_Rev3.4" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="127">
   <si>
     <t>Designator</t>
   </si>
@@ -45,15 +50,351 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>220uF</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>GRM31CC80G227ME11L</t>
+  </si>
+  <si>
+    <t>CAP CER 220UF 4V X6S 1206</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>C2, C3, C4, C5, C7, C8, C9, C10, C12</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>GRM188R71C105KA12D</t>
+  </si>
+  <si>
+    <t>C6, C14</t>
+  </si>
+  <si>
+    <t>2.2uF</t>
+  </si>
+  <si>
+    <t>GRM188R61C225KE15D</t>
+  </si>
+  <si>
+    <t>CAP CER 2.2uF 16V X5R 0603</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>GRM188R71E104KA01D</t>
+  </si>
+  <si>
+    <t>CAP, 0.1uF, 25V, 0603</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>GRM188R71C103KA01D</t>
+  </si>
+  <si>
+    <t>CAP CER 0.01uF 16V X7R 0603</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>CL31B106KOHNNNE</t>
+  </si>
+  <si>
+    <t>CAP CER 10uF 16V 10% X7R 1206</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>D1, D2, D3, D4</t>
+  </si>
+  <si>
+    <t>MBR0520</t>
+  </si>
+  <si>
+    <t>MBR0520-TP</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 20V 500MA SOD123</t>
+  </si>
+  <si>
+    <t>Micro</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>LTST-C191KRKT</t>
+  </si>
+  <si>
+    <t>LED RED CLEAR 0603 SMD</t>
+  </si>
+  <si>
+    <t>Lite-On</t>
+  </si>
+  <si>
+    <t>LED_0603</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>Micro USB</t>
+  </si>
+  <si>
+    <t>1981584-1</t>
+  </si>
+  <si>
+    <t>CONN RCPT MICRO USB TYPE AB</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>2.13" E-INK Display</t>
+  </si>
+  <si>
+    <t>WaveShare</t>
+  </si>
+  <si>
+    <t>13368</t>
+  </si>
+  <si>
+    <t>WaveShare 2.13" E-INK Display</t>
+  </si>
+  <si>
+    <t>E-INK Display</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>24POS Flex Con</t>
+  </si>
+  <si>
+    <t>0524352471</t>
+  </si>
+  <si>
+    <t>CONN FFC TOP 24POS 0.50MM R/A</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>3x2 Female Con</t>
+  </si>
+  <si>
+    <t>0872640652</t>
+  </si>
+  <si>
+    <t>Recptacle, Female 3X2,TH, 2MM R/A</t>
+  </si>
+  <si>
+    <t>MOLEX</t>
+  </si>
+  <si>
+    <t>3x2</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>Batt Connector</t>
+  </si>
+  <si>
+    <t>S2B-PH-K-S(LF)(SN)</t>
+  </si>
+  <si>
+    <t>CONN HEADER PH SIDE 2POS 2MM</t>
+  </si>
+  <si>
+    <t>JST</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>68uH</t>
+  </si>
+  <si>
+    <t>LQH43CN680K03L</t>
+  </si>
+  <si>
+    <t>INDUCTOR 68UH 10% 220MA 1812</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>N-CH Mosfet</t>
+  </si>
+  <si>
+    <t>2N7002K-T1-E3</t>
+  </si>
+  <si>
+    <t>MOSFET N-CH 60V 300MA SOT-23</t>
+  </si>
+  <si>
+    <t>Vishay Siliconix</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>FDN340P</t>
+  </si>
+  <si>
+    <t>MOSFET P-CH 20V 2A SOT-23</t>
+  </si>
+  <si>
+    <t>Fairchild Semi</t>
+  </si>
+  <si>
+    <t>R1, R2, R7</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1002V</t>
+  </si>
+  <si>
+    <t>RES SMD 10K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>2.2R</t>
+  </si>
+  <si>
+    <t>ERJ-3GEYJ2R2V</t>
+  </si>
+  <si>
+    <t>RES SMD 2.2 OHM 5% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>R4, R5</t>
+  </si>
+  <si>
+    <t>4.7K</t>
+  </si>
+  <si>
+    <t>ERJ-PA3F4701V</t>
+  </si>
+  <si>
+    <t>RES SMD 4.7K OHM 1% 1/4W 0603</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>2K</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF2001V</t>
+  </si>
+  <si>
+    <t>RES SMD 2K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>ERJ-PA3F1003V</t>
+  </si>
+  <si>
+    <t>RES SMD 100K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>ESP32</t>
+  </si>
+  <si>
+    <t>ezsbc.com</t>
+  </si>
+  <si>
+    <t>ESP-WROOM-32</t>
+  </si>
+  <si>
+    <t>WIFI&amp;Bluetooth</t>
+  </si>
+  <si>
+    <t>Has to be Rev1 silicon to sleep</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>HDC1080DMBT</t>
+  </si>
+  <si>
+    <t>Humidity/Temperature Sensor</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>CAT6219-330TDGT3</t>
+  </si>
+  <si>
+    <t>IC REG LDO 3.3V 0.5A SOT23-5</t>
+  </si>
+  <si>
+    <t>On Semi</t>
+  </si>
+  <si>
     <t>U4</t>
   </si>
   <si>
     <t>MCP73831T-2ACI</t>
   </si>
   <si>
-    <t>Digi-Key</t>
-  </si>
-  <si>
     <t>MCP73831T-2ACI/OT</t>
   </si>
   <si>
@@ -63,358 +404,7 @@
     <t>Microchip</t>
   </si>
   <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>CAT6219-330TDGT3</t>
-  </si>
-  <si>
-    <t>IC REG LDO 3.3V 0.5A SOT23-5</t>
-  </si>
-  <si>
-    <t>On Semi</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>HDC1080DMBT</t>
-  </si>
-  <si>
-    <t>Humidity/Temperature Sensor</t>
-  </si>
-  <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>ESP32</t>
-  </si>
-  <si>
-    <t>ezsbc.com</t>
-  </si>
-  <si>
-    <t>ESP-WROOM-32</t>
-  </si>
-  <si>
-    <t>WIFI&amp;Bluetooth</t>
-  </si>
-  <si>
-    <t>Has to be Rev1 silicon to sleep</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>100K</t>
-  </si>
-  <si>
-    <t>ERJ-PA3F1003V</t>
-  </si>
-  <si>
-    <t>RES SMD 100K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>Panasonic</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>2K</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF2001V</t>
-  </si>
-  <si>
-    <t>RES SMD 2K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>R4, R5</t>
-  </si>
-  <si>
-    <t>4.7K</t>
-  </si>
-  <si>
-    <t>ERJ-PA3F4701V</t>
-  </si>
-  <si>
-    <t>RES SMD 4.7K OHM 1% 1/4W 0603</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>2.2R</t>
-  </si>
-  <si>
-    <t>ERJ-3GEYJ2R2V</t>
-  </si>
-  <si>
-    <t>RES SMD 2.2 OHM 5% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>R1, R2, R7</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF1002V</t>
-  </si>
-  <si>
-    <t>RES SMD 10K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>FDN340P</t>
-  </si>
-  <si>
-    <t>MOSFET P-CH 20V 2A SOT-23</t>
-  </si>
-  <si>
-    <t>Fairchild Semi</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>N-CH Mosfet</t>
-  </si>
-  <si>
-    <t>2N7002K-T1-E3</t>
-  </si>
-  <si>
-    <t>MOSFET N-CH 60V 300MA SOT-23</t>
-  </si>
-  <si>
-    <t>Vishay Siliconix</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>68uH</t>
-  </si>
-  <si>
-    <t>LQH43CN680K03L</t>
-  </si>
-  <si>
-    <t>INDUCTOR 68UH 10% 220MA 1812</t>
-  </si>
-  <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>Batt Connector</t>
-  </si>
-  <si>
-    <t>S2B-PH-K-S(LF)(SN)</t>
-  </si>
-  <si>
-    <t>CONN HEADER PH SIDE 2POS 2MM</t>
-  </si>
-  <si>
-    <t>JST</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>3x2 Female Con</t>
-  </si>
-  <si>
-    <t>0872640652</t>
-  </si>
-  <si>
-    <t>Recptacle, Female 3X2,TH, 2MM R/A</t>
-  </si>
-  <si>
-    <t>MOLEX</t>
-  </si>
-  <si>
-    <t>3x2</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>24POS Flex Con</t>
-  </si>
-  <si>
-    <t>0524352471</t>
-  </si>
-  <si>
-    <t>CONN FFC TOP 24POS 0.50MM R/A</t>
-  </si>
-  <si>
-    <t>Molex</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>2.13" E-INK Display</t>
-  </si>
-  <si>
-    <t>WaveShare</t>
-  </si>
-  <si>
-    <t>13368</t>
-  </si>
-  <si>
-    <t>WaveShare 2.13" E-INK Display</t>
-  </si>
-  <si>
-    <t>E-INK Display</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>Micro USB</t>
-  </si>
-  <si>
-    <t>1981584-1</t>
-  </si>
-  <si>
-    <t>CONN RCPT MICRO USB TYPE AB</t>
-  </si>
-  <si>
-    <t>TE Connectivity</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>LTST-C191KRKT</t>
-  </si>
-  <si>
-    <t>LED RED CLEAR 0603 SMD</t>
-  </si>
-  <si>
-    <t>Lite-On</t>
-  </si>
-  <si>
-    <t>LED_0603</t>
-  </si>
-  <si>
-    <t>D1, D2, D3, D4</t>
-  </si>
-  <si>
-    <t>MBR0520</t>
-  </si>
-  <si>
-    <t>MBR0520-TP</t>
-  </si>
-  <si>
-    <t>DIODE SCHOTTKY 20V 500MA SOD123</t>
-  </si>
-  <si>
-    <t>Micro</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>CL31B106KOHNNNE</t>
-  </si>
-  <si>
-    <t>CAP CER 10uF 16V 10% X7R 1206</t>
-  </si>
-  <si>
-    <t>Samsung</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>GRM188R71C103KA01D</t>
-  </si>
-  <si>
-    <t>CAP CER 0.01uF 16V X7R 0603</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>GRM188R71E104KA01D</t>
-  </si>
-  <si>
-    <t>CAP, 0.1uF, 25V, 0603</t>
-  </si>
-  <si>
-    <t>C6, C14</t>
-  </si>
-  <si>
-    <t>2.2uF</t>
-  </si>
-  <si>
-    <t>GRM188R61C225KE15D</t>
-  </si>
-  <si>
-    <t>CAP CER 2.2uF 16V X5R 0603</t>
-  </si>
-  <si>
-    <t>C3, C5</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>C0603C105K3RACTU</t>
-  </si>
-  <si>
-    <t>CAP CER 1UF 25V X7R 0603</t>
-  </si>
-  <si>
-    <t>Kemet</t>
-  </si>
-  <si>
-    <t>C2, C4, C7, C8, C9, C10, C12</t>
-  </si>
-  <si>
-    <t>GRM188R71C105KA12D</t>
-  </si>
-  <si>
-    <t>CAP CER 1uF 16V X7R 0603, CAP CER 1UF 25V X7R 0603, CAP CER 1uF 16V X7R 0603, CAP CER 1uF 16V X7R 0603, CAP CER 1uF 16V X7R 0603, CAP CER 1uF 16V X7R 0603, CAP CER 1uF 16V X7R 0603</t>
-  </si>
-  <si>
-    <t>Murata, Kemet, Murata, Murata, Murata, Murata, Murata</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>220uF</t>
-  </si>
-  <si>
-    <t>GRM31CC80G227ME11L</t>
-  </si>
-  <si>
-    <t>CAP CER 220UF 4V X6S 1206</t>
+    <t>CAP CER 1uF 16V X7R 0603</t>
   </si>
 </sst>
 </file>
@@ -477,13 +467,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,19 +793,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="11.9296875" customWidth="1"/>
-    <col min="3" max="3" width="16.06640625" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.9296875" customWidth="1"/>
-    <col min="6" max="6" width="17.59765625" customWidth="1"/>
-    <col min="7" max="7" width="11.9296875" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.9296875" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="13.53125" customWidth="1"/>
+    <col min="4" max="4" width="8.796875" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="26.53125" customWidth="1"/>
+    <col min="7" max="7" width="12.796875" customWidth="1"/>
+    <col min="8" max="8" width="20.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
@@ -862,15 +860,15 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -879,13 +877,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -893,184 +891,184 @@
     </row>
     <row r="4" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="3">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
@@ -1081,123 +1079,123 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>74</v>
@@ -1205,42 +1203,42 @@
     </row>
     <row r="16" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>83</v>
@@ -1249,10 +1247,10 @@
         <v>84</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
@@ -1260,7 +1258,7 @@
         <v>86</v>
       </c>
       <c r="B18" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>87</v>
@@ -1301,111 +1299,111 @@
         <v>94</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="3">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="G20" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="G23" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>112</v>
@@ -1413,106 +1411,80 @@
     </row>
     <row r="24" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="3">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="H24" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="3">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="H25" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="3">
-        <v>7</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="H26" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="14.65" x14ac:dyDescent="0.5">
-      <c r="A27" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
